--- a/funcs/LLN0.xlsx
+++ b/funcs/LLN0.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.11.240\Company\Ivanovo\Документация ЮНИТ М300\Разработка\Схемы ФБ ЮНИТ-М3\Трансформатор\ИЭУ Т 35 кВ Россети\01. Разработка ФБ\17. ДЗТ 35\_xlsx\funcs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.11.240\Company\Ivanovo\Документация ЮНИТ М300\Разработка\Схемы ФБ ЮНИТ-М3\Трансформатор\ИЭУ Т 35 кВ Россети\01. Разработка ФБ\46. КА В\_xlsx\funcs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="68">
   <si>
     <t>Категория (group)</t>
   </si>
@@ -184,13 +184,28 @@
     <t>Hash</t>
   </si>
   <si>
-    <t>ДЗТ</t>
-  </si>
-  <si>
-    <t>TDIF</t>
-  </si>
-  <si>
-    <t>Дифференциальная защита трансформатора</t>
+    <t>КА</t>
+  </si>
+  <si>
+    <t>setting</t>
+  </si>
+  <si>
+    <t>Ввод функции в работу</t>
+  </si>
+  <si>
+    <t>Ввод_функции</t>
+  </si>
+  <si>
+    <t>SGF1</t>
+  </si>
+  <si>
+    <t>0 - Не предусмотрено, 1 - Предусмотрено</t>
+  </si>
+  <si>
+    <t>BOOL</t>
+  </si>
+  <si>
+    <t>T_IO</t>
   </si>
   <si>
     <t>DescriptionFunc</t>
@@ -206,13 +221,16 @@
   </si>
   <si>
     <t>WeightFB</t>
+  </si>
+  <si>
+    <t>Коммутационные аппараты</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -227,13 +245,25 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -263,11 +293,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -570,19 +601,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD3"/>
+  <dimension ref="A1:AD4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.85546875" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" customWidth="1"/>
-    <col min="3" max="3" width="52.140625" customWidth="1"/>
-    <col min="4" max="4" width="22.85546875" customWidth="1"/>
-    <col min="5" max="5" width="19.140625" customWidth="1"/>
+    <col min="3" max="3" width="48.5703125" customWidth="1"/>
+    <col min="4" max="4" width="29.42578125" customWidth="1"/>
     <col min="6" max="6" width="53.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -862,8 +892,101 @@
         <v>34</v>
       </c>
     </row>
+    <row r="4" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0</v>
+      </c>
+      <c r="M4" t="s">
+        <v>36</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T4" s="2">
+        <v>0</v>
+      </c>
+      <c r="U4" s="2">
+        <v>0</v>
+      </c>
+      <c r="V4" s="2">
+        <v>0</v>
+      </c>
+      <c r="W4" s="2">
+        <v>0</v>
+      </c>
+      <c r="X4" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD4" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -872,12 +995,12 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -901,7 +1024,7 @@
         <v>52</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -911,15 +1034,15 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B5" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -927,18 +1050,18 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B8">
-        <v>100</v>
+        <v>3100</v>
       </c>
     </row>
   </sheetData>
